--- a/data/ORACLE_METADATA.xlsx
+++ b/data/ORACLE_METADATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14198" windowHeight="3810" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14198" windowHeight="3810" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Support Tables " sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="704">
   <si>
     <t>VCS_CAPTAIN_STATUS</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cost values 1 and 2 are combined and and reported as a single variable given limited data. No descriptions were provided by survey respondents.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Other costs for the selected vessel that were not asked in the survey. This includes a combined value for all values provided given that no descriptions were provided despite being asked on the survey." </t>
   </si>
   <si>
     <t>OTHER_BUSINESS_COST</t>
@@ -6807,7 +6804,7 @@
   </sheetPr>
   <dimension ref="A1:X1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -13375,10 +13372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U994"/>
+  <dimension ref="A1:R994"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13387,7 +13384,6 @@
     <col min="2" max="2" width="19.59765625" customWidth="1"/>
     <col min="3" max="3" width="47.73046875" customWidth="1"/>
     <col min="4" max="4" width="35.46484375" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.15">
@@ -13586,7 +13582,7 @@
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:21" ht="25.5">
+    <row r="17" spans="1:18" ht="25.5">
       <c r="A17" s="3" t="s">
         <v>481</v>
       </c>
@@ -13598,7 +13594,7 @@
       </c>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:21" ht="102">
+    <row r="18" spans="1:18" ht="102">
       <c r="A18" s="3" t="s">
         <v>483</v>
       </c>
@@ -13610,7 +13606,7 @@
       </c>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:21" ht="12.75">
+    <row r="19" spans="1:18" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>485</v>
       </c>
@@ -13622,7 +13618,7 @@
       </c>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:21" ht="12.75">
+    <row r="20" spans="1:18" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>488</v>
       </c>
@@ -13634,7 +13630,7 @@
       </c>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:21" ht="102">
+    <row r="21" spans="1:18" ht="102">
       <c r="A21" s="3" t="s">
         <v>490</v>
       </c>
@@ -13646,7 +13642,7 @@
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:21" ht="12.75">
+    <row r="22" spans="1:18" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>492</v>
       </c>
@@ -13658,7 +13654,7 @@
       </c>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:21" ht="12.75">
+    <row r="23" spans="1:18" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>493</v>
       </c>
@@ -13670,7 +13666,7 @@
       </c>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:21" ht="102">
+    <row r="24" spans="1:18" ht="102">
       <c r="A24" s="3" t="s">
         <v>494</v>
       </c>
@@ -13682,7 +13678,7 @@
       </c>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:21" ht="12.75">
+    <row r="25" spans="1:18" ht="12.75">
       <c r="A25" s="3" t="s">
         <v>496</v>
       </c>
@@ -13694,7 +13690,7 @@
       </c>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75">
+    <row r="26" spans="1:18" ht="12.75">
       <c r="A26" s="3" t="s">
         <v>497</v>
       </c>
@@ -13706,7 +13702,7 @@
       </c>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:21" ht="12.75">
+    <row r="27" spans="1:18" ht="12.75">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -13720,7 +13716,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="38.25">
+    <row r="28" spans="1:18" ht="38.25">
       <c r="A28" s="3" t="s">
         <v>500</v>
       </c>
@@ -13732,7 +13728,7 @@
       </c>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:21" ht="12.75">
+    <row r="29" spans="1:18" ht="12.75">
       <c r="A29" s="3" t="s">
         <v>112</v>
       </c>
@@ -13757,11 +13753,8 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" ht="63.75">
+    </row>
+    <row r="30" spans="1:18" ht="63.75">
       <c r="A30" s="3" t="s">
         <v>139</v>
       </c>
@@ -13786,11 +13779,8 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" ht="12.75">
+    </row>
+    <row r="31" spans="1:18" ht="12.75">
       <c r="A31" s="3" t="s">
         <v>210</v>
       </c>
@@ -13802,7 +13792,7 @@
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:21" ht="51">
+    <row r="32" spans="1:18" ht="51">
       <c r="A32" s="3" t="s">
         <v>504</v>
       </c>
@@ -14390,7 +14380,7 @@
       </c>
       <c r="D80" s="19"/>
     </row>
-    <row r="81" spans="1:21" ht="25.5">
+    <row r="81" spans="1:18" ht="25.5">
       <c r="A81" s="3" t="s">
         <v>169</v>
       </c>
@@ -14402,7 +14392,7 @@
       </c>
       <c r="D81" s="19"/>
     </row>
-    <row r="82" spans="1:21" ht="25.5">
+    <row r="82" spans="1:18" ht="25.5">
       <c r="A82" s="3" t="s">
         <v>71</v>
       </c>
@@ -14427,11 +14417,8 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="1:21" ht="38.25">
+    </row>
+    <row r="83" spans="1:18" ht="38.25">
       <c r="A83" s="3" t="s">
         <v>595</v>
       </c>
@@ -14443,7 +14430,7 @@
       </c>
       <c r="D83" s="19"/>
     </row>
-    <row r="84" spans="1:21" ht="25.5">
+    <row r="84" spans="1:18" ht="25.5">
       <c r="A84" s="3" t="s">
         <v>597</v>
       </c>
@@ -14455,7 +14442,7 @@
       </c>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:21" ht="38.25">
+    <row r="85" spans="1:18" ht="38.25">
       <c r="A85" s="3" t="s">
         <v>599</v>
       </c>
@@ -14467,7 +14454,7 @@
       </c>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:21" ht="51">
+    <row r="86" spans="1:18" ht="51">
       <c r="A86" s="3" t="s">
         <v>601</v>
       </c>
@@ -14494,11 +14481,8 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-    </row>
-    <row r="87" spans="1:21" ht="38.25">
+    </row>
+    <row r="87" spans="1:18" ht="38.25">
       <c r="A87" s="3" t="s">
         <v>604</v>
       </c>
@@ -14510,7 +14494,7 @@
       </c>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="1:21" ht="25.5">
+    <row r="88" spans="1:18" ht="25.5">
       <c r="A88" s="3" t="s">
         <v>606</v>
       </c>
@@ -14522,7 +14506,7 @@
       </c>
       <c r="D88" s="19"/>
     </row>
-    <row r="89" spans="1:21" ht="38.25">
+    <row r="89" spans="1:18" ht="38.25">
       <c r="A89" s="3" t="s">
         <v>194</v>
       </c>
@@ -14534,7 +14518,7 @@
       </c>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="1:21" ht="38.25">
+    <row r="90" spans="1:18" ht="38.25">
       <c r="A90" s="3" t="s">
         <v>609</v>
       </c>
@@ -14546,7 +14530,7 @@
       </c>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:21" ht="25.5">
+    <row r="91" spans="1:18" ht="25.5">
       <c r="A91" s="3" t="s">
         <v>192</v>
       </c>
@@ -14558,7 +14542,7 @@
       </c>
       <c r="D91" s="19"/>
     </row>
-    <row r="92" spans="1:21" ht="25.5">
+    <row r="92" spans="1:18" ht="25.5">
       <c r="A92" s="3" t="s">
         <v>612</v>
       </c>
@@ -14570,7 +14554,7 @@
       </c>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="1:21" ht="38.25">
+    <row r="93" spans="1:18" ht="38.25">
       <c r="A93" s="3" t="s">
         <v>614</v>
       </c>
@@ -14582,7 +14566,7 @@
       </c>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="1:21" ht="25.5">
+    <row r="94" spans="1:18" ht="25.5">
       <c r="A94" s="3" t="s">
         <v>616</v>
       </c>
@@ -14594,7 +14578,7 @@
       </c>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:21" ht="25.5">
+    <row r="95" spans="1:18" ht="25.5">
       <c r="A95" s="3" t="s">
         <v>311</v>
       </c>
@@ -14606,7 +14590,7 @@
       </c>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:21" ht="25.5">
+    <row r="96" spans="1:18" ht="25.5">
       <c r="A96" s="3" t="s">
         <v>313</v>
       </c>
@@ -14618,7 +14602,7 @@
       </c>
       <c r="D96" s="19"/>
     </row>
-    <row r="97" spans="1:5" ht="38.25">
+    <row r="97" spans="1:4" ht="38.25">
       <c r="A97" s="3" t="s">
         <v>224</v>
       </c>
@@ -14630,7 +14614,7 @@
       </c>
       <c r="D97" s="19"/>
     </row>
-    <row r="98" spans="1:5" ht="12.75">
+    <row r="98" spans="1:4" ht="12.75">
       <c r="A98" s="3" t="s">
         <v>228</v>
       </c>
@@ -14642,7 +14626,7 @@
       </c>
       <c r="D98" s="19"/>
     </row>
-    <row r="99" spans="1:5" ht="38.25">
+    <row r="99" spans="1:4" ht="38.25">
       <c r="A99" s="3" t="s">
         <v>160</v>
       </c>
@@ -14656,7 +14640,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="38.25">
+    <row r="100" spans="1:4" ht="38.25">
       <c r="A100" s="3" t="s">
         <v>158</v>
       </c>
@@ -14668,7 +14652,7 @@
       </c>
       <c r="D100" s="77"/>
     </row>
-    <row r="101" spans="1:5" ht="38.25">
+    <row r="101" spans="1:4" ht="38.25">
       <c r="A101" s="3" t="s">
         <v>162</v>
       </c>
@@ -14680,7 +14664,7 @@
       </c>
       <c r="D101" s="77"/>
     </row>
-    <row r="102" spans="1:5" ht="38.25">
+    <row r="102" spans="1:4" ht="38.25">
       <c r="A102" s="3" t="s">
         <v>164</v>
       </c>
@@ -14692,7 +14676,7 @@
       </c>
       <c r="D102" s="77"/>
     </row>
-    <row r="103" spans="1:5" ht="12.75">
+    <row r="103" spans="1:4" ht="12.75">
       <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
@@ -14704,7 +14688,7 @@
       </c>
       <c r="D103" s="77"/>
     </row>
-    <row r="104" spans="1:5" ht="38.25">
+    <row r="104" spans="1:4" ht="38.25">
       <c r="A104" s="3" t="s">
         <v>178</v>
       </c>
@@ -14716,7 +14700,7 @@
       </c>
       <c r="D104" s="77"/>
     </row>
-    <row r="105" spans="1:5" ht="25.5">
+    <row r="105" spans="1:4" ht="25.5">
       <c r="A105" s="3" t="s">
         <v>629</v>
       </c>
@@ -14728,7 +14712,7 @@
       </c>
       <c r="D105" s="19"/>
     </row>
-    <row r="106" spans="1:5" ht="12.75">
+    <row r="106" spans="1:4" ht="12.75">
       <c r="A106" s="3" t="s">
         <v>631</v>
       </c>
@@ -14740,7 +14724,7 @@
       </c>
       <c r="D106" s="19"/>
     </row>
-    <row r="107" spans="1:5" ht="69.75" customHeight="1">
+    <row r="107" spans="1:4" ht="69.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>633</v>
       </c>
@@ -14753,71 +14737,68 @@
       <c r="D107" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="E107" s="9" t="s">
+    </row>
+    <row r="108" spans="1:4" ht="101.25" customHeight="1">
+      <c r="A108" s="3" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="101.25" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C108" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="D108" s="9" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="38.25">
+      <c r="A109" s="3" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="38.25">
-      <c r="A109" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="53" t="s">
+        <v>640</v>
+      </c>
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="1:4" ht="25.5">
+      <c r="A110" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="D109" s="19"/>
-    </row>
-    <row r="110" spans="1:5" ht="25.5">
-      <c r="A110" s="3" t="s">
-        <v>642</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="D110" s="9" t="s">
+    </row>
+    <row r="111" spans="1:4" ht="25.5">
+      <c r="A111" s="3" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="25.5">
-      <c r="A111" s="3" t="s">
-        <v>645</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="53" t="s">
+        <v>645</v>
+      </c>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:4" ht="12.75">
+      <c r="A112" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D111" s="19"/>
-    </row>
-    <row r="112" spans="1:5" ht="12.75">
-      <c r="A112" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="53" t="s">
         <v>648</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>649</v>
       </c>
       <c r="D112" s="19"/>
     </row>
@@ -14844,7 +14825,7 @@
         <v>449</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75">
@@ -18411,7 +18392,7 @@
     </row>
     <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="80" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
@@ -18449,18 +18430,18 @@
         <v>232</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="38.25">
       <c r="A6" s="65" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>653</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>654</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>655</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>10</v>
@@ -18531,7 +18512,7 @@
         <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="51">
@@ -18563,19 +18544,19 @@
         <v>72</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
@@ -18607,13 +18588,13 @@
         <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>54</v>
@@ -18630,13 +18611,13 @@
         <v>79</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>54</v>
@@ -18659,7 +18640,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>54</v>
@@ -18676,13 +18657,13 @@
         <v>91</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>54</v>
@@ -18699,13 +18680,13 @@
         <v>91</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>54</v>
@@ -18722,7 +18703,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -18743,7 +18724,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -18764,7 +18745,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -18785,7 +18766,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -18806,7 +18787,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
@@ -18827,7 +18808,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -18854,7 +18835,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>54</v>
@@ -18871,13 +18852,13 @@
         <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>54</v>
@@ -18894,7 +18875,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
@@ -18915,7 +18896,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -18936,13 +18917,13 @@
         <v>72</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>54</v>
@@ -18959,7 +18940,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -19007,7 +18988,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>54</v>
@@ -19024,7 +19005,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>10</v>
@@ -19045,13 +19026,13 @@
         <v>91</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F32" s="71" t="s">
         <v>54</v>
@@ -19070,7 +19051,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
@@ -19093,7 +19074,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
@@ -19116,7 +19097,7 @@
         <v>91</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>10</v>
@@ -19139,7 +19120,7 @@
         <v>91</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
@@ -19162,7 +19143,7 @@
         <v>91</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
@@ -19185,7 +19166,7 @@
         <v>91</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -19208,7 +19189,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
@@ -19258,7 +19239,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>54</v>
@@ -19275,7 +19256,7 @@
         <v>72</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
@@ -19299,7 +19280,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>54</v>
@@ -19320,7 +19301,7 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>54</v>
@@ -19337,7 +19318,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
@@ -19358,7 +19339,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
@@ -24107,7 +24088,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -24154,7 +24135,7 @@
     </row>
     <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>42</v>
@@ -24165,7 +24146,7 @@
     </row>
     <row r="3" spans="1:5" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -24176,10 +24157,10 @@
     </row>
     <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>702</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -24187,13 +24168,13 @@
     </row>
     <row r="5" spans="1:5" ht="12.75">
       <c r="A5" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>

--- a/data/ORACLE_METADATA.xlsx
+++ b/data/ORACLE_METADATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14198" windowHeight="3810" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14198" windowHeight="3810" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Support Tables " sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="703">
   <si>
     <t>VCS_CAPTAIN_STATUS</t>
   </si>
@@ -1514,9 +1514,6 @@
   </si>
   <si>
     <t xml:space="preserve">No descriptions of these costs were provided by respondents </t>
-  </si>
-  <si>
-    <t xml:space="preserve">***Group to revisit this, Elizabeth will look into whether the costs are costs or descriptions and this should be reflected in Oracle </t>
   </si>
   <si>
     <t>Other 2012 Annual Costs for the selected vessel (not listed in previous sections) Value 2</t>
@@ -6804,8 +6801,8 @@
   </sheetPr>
   <dimension ref="A1:X1051"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8013,9 +8010,7 @@
       <c r="D75" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E75" s="78" t="s">
-        <v>434</v>
-      </c>
+      <c r="E75" s="78"/>
     </row>
     <row r="76" spans="1:24" ht="12.75">
       <c r="A76" s="26" t="s">
@@ -8025,7 +8020,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>433</v>
@@ -8034,13 +8029,13 @@
     </row>
     <row r="77" spans="1:24" ht="25.5">
       <c r="A77" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>433</v>
@@ -8049,13 +8044,13 @@
     </row>
     <row r="78" spans="1:24" ht="12.75">
       <c r="A78" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>433</v>
@@ -8073,7 +8068,7 @@
         <v>356</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="12.75">
@@ -8084,29 +8079,29 @@
         <v>38</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="12.75">
       <c r="A82" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="25.5">
       <c r="A83" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="25.5">
@@ -8117,7 +8112,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="25.5">
@@ -8128,18 +8123,18 @@
         <v>334</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="63.75">
       <c r="A86" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="12.75">
@@ -8179,7 +8174,7 @@
     </row>
     <row r="94" spans="1:24" ht="13.15">
       <c r="A94" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B94" s="55"/>
       <c r="C94" s="43"/>
@@ -8309,7 +8304,7 @@
         <v>262</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -8373,7 +8368,7 @@
         <v>262</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
@@ -8399,13 +8394,13 @@
     </row>
     <row r="101" spans="1:24" ht="12.75">
       <c r="A101" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B101" s="26" t="s">
         <v>262</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -8437,7 +8432,7 @@
         <v>143</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -8463,13 +8458,13 @@
     </row>
     <row r="103" spans="1:24" ht="12.75">
       <c r="A103" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B103" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
@@ -8495,13 +8490,13 @@
     </row>
     <row r="104" spans="1:24" ht="12.75">
       <c r="A104" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B104" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -8527,13 +8522,13 @@
     </row>
     <row r="105" spans="1:24" ht="12.75">
       <c r="A105" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B105" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
@@ -8559,13 +8554,13 @@
     </row>
     <row r="106" spans="1:24" ht="12.75">
       <c r="A106" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
@@ -8591,13 +8586,13 @@
     </row>
     <row r="107" spans="1:24" ht="12.75">
       <c r="A107" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
@@ -8623,7 +8618,7 @@
     </row>
     <row r="108" spans="1:24" ht="12.75">
       <c r="A108" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>334</v>
@@ -8635,16 +8630,16 @@
     </row>
     <row r="109" spans="1:24" ht="12.75">
       <c r="A109" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B109" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="12.75">
@@ -13374,7 +13369,7 @@
   </sheetPr>
   <dimension ref="A1:R994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -13432,7 +13427,7 @@
         <v>234</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D4" s="19"/>
     </row>
@@ -13444,7 +13439,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D5" s="19"/>
     </row>
@@ -13468,10 +13463,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75">
@@ -13518,7 +13513,7 @@
         <v>249</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -13530,43 +13525,43 @@
         <v>35</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="25.5">
       <c r="A13" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="25.5">
       <c r="A14" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="25.5">
       <c r="A15" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="53" t="s">
         <v>478</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>479</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -13578,127 +13573,127 @@
         <v>6</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:18" ht="25.5">
       <c r="A17" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:18" ht="102">
       <c r="A18" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:18" ht="12.75">
       <c r="A19" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="53" t="s">
         <v>486</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>487</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:18" ht="12.75">
       <c r="A20" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:18" ht="102">
       <c r="A21" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:18" ht="12.75">
       <c r="A22" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>486</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>487</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:18" ht="12.75">
       <c r="A23" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:18" ht="102">
       <c r="A24" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:18" ht="12.75">
       <c r="A25" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>486</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>487</v>
       </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:18" ht="12.75">
       <c r="A26" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D26" s="19"/>
     </row>
@@ -13710,21 +13705,21 @@
         <v>38</v>
       </c>
       <c r="C27" s="53" t="s">
+        <v>497</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="38.25">
       <c r="A28" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -13736,7 +13731,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="3"/>
@@ -13788,511 +13783,511 @@
         <v>35</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:18" ht="51">
       <c r="A32" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="25.5">
       <c r="A33" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" ht="25.5">
       <c r="A34" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="25.5">
       <c r="A35" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="25.5">
       <c r="A36" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="25.5">
       <c r="A37" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="25.5">
       <c r="A38" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" ht="25.5">
       <c r="A39" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="25.5">
       <c r="A40" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="25.5">
       <c r="A41" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" ht="25.5">
       <c r="A45" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="25.5">
       <c r="A47" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="25.5">
       <c r="A48" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="25.5">
       <c r="A49" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" ht="25.5">
       <c r="A50" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" ht="25.5">
       <c r="A51" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="25.5">
       <c r="A52" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="25.5">
       <c r="A53" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="25.5">
       <c r="A54" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" ht="25.5">
       <c r="A55" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" ht="25.5">
       <c r="A56" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" ht="25.5">
       <c r="A57" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" ht="12.75">
       <c r="A58" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="12.75">
       <c r="A59" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" ht="25.5">
       <c r="A60" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" ht="25.5">
       <c r="A61" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" ht="12.75">
       <c r="A62" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" ht="25.5">
       <c r="A63" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" ht="25.5">
       <c r="A64" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="25.5">
       <c r="A65" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="51">
       <c r="A66" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="25.5">
       <c r="A67" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="12.75">
       <c r="A68" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="12.75">
       <c r="A69" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="12.75">
       <c r="A70" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="12.75">
       <c r="A71" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="12.75">
       <c r="A72" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="12.75">
       <c r="A73" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D73" s="19"/>
     </row>
@@ -14304,7 +14299,7 @@
         <v>38</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D74" s="19"/>
     </row>
@@ -14328,7 +14323,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D76" s="19"/>
     </row>
@@ -14352,7 +14347,7 @@
         <v>38</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D78" s="19"/>
     </row>
@@ -14364,7 +14359,7 @@
         <v>38</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -14376,7 +14371,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D80" s="19"/>
     </row>
@@ -14388,7 +14383,7 @@
         <v>38</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D81" s="19"/>
     </row>
@@ -14400,7 +14395,7 @@
         <v>38</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="3"/>
@@ -14420,52 +14415,52 @@
     </row>
     <row r="83" spans="1:18" ht="38.25">
       <c r="A83" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:18" ht="25.5">
       <c r="A84" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:18" ht="38.25">
       <c r="A85" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:18" ht="51">
       <c r="A86" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -14484,25 +14479,25 @@
     </row>
     <row r="87" spans="1:18" ht="38.25">
       <c r="A87" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:18" ht="25.5">
       <c r="A88" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D88" s="19"/>
     </row>
@@ -14514,19 +14509,19 @@
         <v>38</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:18" ht="38.25">
       <c r="A90" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D90" s="19"/>
     </row>
@@ -14538,43 +14533,43 @@
         <v>35</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:18" ht="25.5">
       <c r="A92" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:18" ht="38.25">
       <c r="A93" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:18" ht="25.5">
       <c r="A94" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D94" s="19"/>
     </row>
@@ -14586,7 +14581,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D95" s="19"/>
     </row>
@@ -14598,7 +14593,7 @@
         <v>38</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D96" s="19"/>
     </row>
@@ -14610,7 +14605,7 @@
         <v>356</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D97" s="19"/>
     </row>
@@ -14622,7 +14617,7 @@
         <v>38</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D98" s="19"/>
     </row>
@@ -14634,10 +14629,10 @@
         <v>38</v>
       </c>
       <c r="C99" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="D99" s="79" t="s">
         <v>622</v>
-      </c>
-      <c r="D99" s="79" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="38.25">
@@ -14648,7 +14643,7 @@
         <v>38</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D100" s="77"/>
     </row>
@@ -14660,7 +14655,7 @@
         <v>38</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D101" s="77"/>
     </row>
@@ -14672,7 +14667,7 @@
         <v>38</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D102" s="77"/>
     </row>
@@ -14684,7 +14679,7 @@
         <v>38</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D103" s="77"/>
     </row>
@@ -14696,109 +14691,109 @@
         <v>38</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D104" s="77"/>
     </row>
     <row r="105" spans="1:4" ht="25.5">
       <c r="A105" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D105" s="19"/>
     </row>
     <row r="106" spans="1:4" ht="12.75">
       <c r="A106" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" ht="69.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C107" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="101.25" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C108" s="53" t="s">
+        <v>636</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="38.25">
       <c r="A109" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:4" ht="25.5">
       <c r="A110" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="25.5">
       <c r="A111" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D111" s="19"/>
     </row>
     <row r="112" spans="1:4" ht="12.75">
       <c r="A112" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="53" t="s">
         <v>647</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>648</v>
       </c>
       <c r="D112" s="19"/>
     </row>
@@ -14816,16 +14811,16 @@
     </row>
     <row r="114" spans="1:4" ht="63.75">
       <c r="A114" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75">
@@ -18392,7 +18387,7 @@
     </row>
     <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="80" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
@@ -18430,18 +18425,18 @@
         <v>232</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="38.25">
       <c r="A6" s="65" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>653</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>654</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>10</v>
@@ -18512,7 +18507,7 @@
         <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="51">
@@ -18538,25 +18533,25 @@
     </row>
     <row r="10" spans="1:26" ht="76.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
@@ -18588,13 +18583,13 @@
         <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>54</v>
@@ -18611,13 +18606,13 @@
         <v>79</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>54</v>
@@ -18640,7 +18635,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>54</v>
@@ -18657,13 +18652,13 @@
         <v>91</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>54</v>
@@ -18680,13 +18675,13 @@
         <v>91</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>54</v>
@@ -18703,7 +18698,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -18724,7 +18719,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -18745,7 +18740,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -18766,7 +18761,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -18787,7 +18782,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
@@ -18808,7 +18803,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -18835,7 +18830,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>54</v>
@@ -18852,13 +18847,13 @@
         <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>54</v>
@@ -18875,7 +18870,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
@@ -18896,7 +18891,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -18917,13 +18912,13 @@
         <v>72</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>54</v>
@@ -18940,7 +18935,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -18988,7 +18983,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>54</v>
@@ -19005,7 +19000,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>10</v>
@@ -19026,13 +19021,13 @@
         <v>91</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F32" s="71" t="s">
         <v>54</v>
@@ -19051,7 +19046,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
@@ -19074,7 +19069,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
@@ -19097,7 +19092,7 @@
         <v>91</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>10</v>
@@ -19120,7 +19115,7 @@
         <v>91</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
@@ -19143,7 +19138,7 @@
         <v>91</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
@@ -19166,7 +19161,7 @@
         <v>91</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -19189,7 +19184,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
@@ -19239,7 +19234,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>54</v>
@@ -19256,7 +19251,7 @@
         <v>72</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
@@ -19280,7 +19275,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>54</v>
@@ -19301,7 +19296,7 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>54</v>
@@ -19318,7 +19313,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
@@ -19339,7 +19334,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
@@ -24088,7 +24083,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -24135,7 +24130,7 @@
     </row>
     <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>42</v>
@@ -24146,7 +24141,7 @@
     </row>
     <row r="3" spans="1:5" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -24157,10 +24152,10 @@
     </row>
     <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -24168,13 +24163,13 @@
     </row>
     <row r="5" spans="1:5" ht="12.75">
       <c r="A5" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
